--- a/Pharma.xlsx
+++ b/Pharma.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFB00C-CCD1-4974-AFC8-4FC15651B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D5021-0642-43E9-94A1-852BFBF06689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{6C82A67D-F730-478A-A6D2-74994D82605C}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{6C82A67D-F730-478A-A6D2-74994D82605C}"/>
   </bookViews>
   <sheets>
     <sheet name="Biotech" sheetId="1" r:id="rId1"/>
-    <sheet name="Genomics" sheetId="3" r:id="rId2"/>
+    <sheet name="Pharmacies" sheetId="4" r:id="rId2"/>
+    <sheet name="Genomics" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
   <si>
     <t>Company</t>
   </si>
@@ -649,12 +653,36 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Hims and Hers</t>
+  </si>
+  <si>
+    <t>HIMS</t>
+  </si>
+  <si>
+    <t>Redcare Pharmacy</t>
+  </si>
+  <si>
+    <t>RDC.F</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -763,6 +791,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,6 +811,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Quarters"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>99.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1995.0458208000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>315.70799999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>449.74</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,11 +1173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6532636-4CA8-4AD6-92BA-BF7279EF51B4}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1926,279 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD04104-1178-4F62-ACFB-F0E2CB8AA401}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>+A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <f>+[1]Main!$J$2</f>
+        <v>99.2</v>
+      </c>
+      <c r="F6" s="10">
+        <f>+[1]Main!$J$4</f>
+        <v>1995.0458208000002</v>
+      </c>
+      <c r="G6" s="10">
+        <f>+[1]Main!$J$6-[1]Main!$J$5</f>
+        <v>134.03200000000004</v>
+      </c>
+      <c r="H6" s="10">
+        <f>+F6+G6</f>
+        <v>2129.0778208000002</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" ref="A7:A33" si="0">+A6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{C3E3BBFF-2A42-4A42-91D0-AFC589EE8F97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6425806B-37E1-4DD0-8B64-2CB9114B2A79}">
   <dimension ref="A1:L61"/>
   <sheetViews>
